--- a/profiles/Nederlands Profiel voor Catalogi.xlsx
+++ b/profiles/Nederlands Profiel voor Catalogi.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TieboutFinn\OneDrive - Kadaster\Documenten\werkgroep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9F635E-7687-435E-8FF6-0A45BAAABBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1610A-5D96-4E9A-B0B8-8468914F9B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{EA1CC763-8BBB-45EF-8793-190FA5C16204}"/>
   </bookViews>
   <sheets>
     <sheet name="Begrip" sheetId="1" r:id="rId1"/>
+    <sheet name="Collection" sheetId="2" r:id="rId2"/>
+    <sheet name="Begrippenkader" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -933,8 +935,8 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,4 +1524,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E9EBD6-AAE0-4058-943A-D1CD799B1A15}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0478B84F-45B3-4439-8D26-7436847E073C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/profiles/Nederlands Profiel voor Catalogi.xlsx
+++ b/profiles/Nederlands Profiel voor Catalogi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TieboutFinn\OneDrive - Kadaster\Documenten\werkgroep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TieboutFinn\OneDrive - Kadaster\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1610A-5D96-4E9A-B0B8-8468914F9B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490A58E-BFF0-4E37-9C6F-47F68B41B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{EA1CC763-8BBB-45EF-8793-190FA5C16204}"/>
+    <workbookView xWindow="4584" yWindow="4572" windowWidth="19200" windowHeight="9120" xr2:uid="{EA1CC763-8BBB-45EF-8793-190FA5C16204}"/>
   </bookViews>
   <sheets>
     <sheet name="Begrip" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
-  <si>
-    <t>Profiel voor StelselCatalogi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>Begrip</t>
   </si>
@@ -352,9 +349,6 @@
     <t>Bron</t>
   </si>
   <si>
-    <t>bibliographic resource</t>
-  </si>
-  <si>
     <t>Een string (UNICODE) karakters, in een natuurlijke taal, bij voorkeur Nederlands.</t>
   </si>
   <si>
@@ -422,6 +416,18 @@
   </si>
   <si>
     <t>Geeft een voorbeeld van het concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">het Concept Schema (in het Nederlands begrippenkader) is de Universe of Discourse, en verzorgt de functionele invulling om context vast te leggen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelabelde of geordende groepen van SKOS concepten, bruikbaar om concepten die een overeenkomst hebben te grouperen en te labellen.  </t>
+  </si>
+  <si>
+    <t>Profiel voor Catalogi</t>
+  </si>
+  <si>
+    <t>Aanvullende eigenschappen welke niet direct afkomstig zijn uit SKOS.</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -583,25 +589,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -612,9 +599,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -935,8 +940,8 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,169 +961,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="3" spans="1:15" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="A4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
-      <c r="B5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>9</v>
       </c>
       <c r="I6" s="4"/>
       <c r="K6" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="4"/>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="27"/>
+      <c r="B9" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="37"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1126,386 +1131,378 @@
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="C10" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="K11" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="I12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="34" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>38</v>
+      <c r="E13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I13"/>
       <c r="K13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="B14" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="I18"/>
       <c r="K18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>95</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="B21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:12" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C22" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="K22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="B23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="L24" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="B25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D5:K5"/>
@@ -1516,6 +1513,11 @@
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="D25:L25"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K19" r:id="rId1" location="broader" xr:uid="{FDF50A84-2A92-473B-9448-7F0610A80C13}"/>

--- a/profiles/Nederlands Profiel voor Catalogi.xlsx
+++ b/profiles/Nederlands Profiel voor Catalogi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TieboutFinn\OneDrive - Kadaster\Documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490A58E-BFF0-4E37-9C6F-47F68B41B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B78C0-62F4-412B-9CAF-4BA64E175C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4584" yWindow="4572" windowWidth="19200" windowHeight="9120" xr2:uid="{EA1CC763-8BBB-45EF-8793-190FA5C16204}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{EA1CC763-8BBB-45EF-8793-190FA5C16204}"/>
   </bookViews>
   <sheets>
     <sheet name="Begrip" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>Begrip</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>SKOS: A statement or formal explanation of the meaning of a concept. ISO11179: Representation of a concept by a descriptive statement which serves to differentiate it from related concepts.</t>
-  </si>
-  <si>
-    <t>Een definitie van een begrip is een tekstuele beschrijving van de betekenis van dit begrip waarmee het begrip kan worden onderscheiden van andere begrippen.</t>
   </si>
   <si>
     <t>Een definitie is juridisch geldig waar mogelijk en niet persee publieksvriendelijk. De definitie definitie dient compleet en sluitend te zijn en voldoende informatie te bevatten om binnen het domein herkenbaar te zijn.</t>
@@ -181,27 +178,15 @@
     <t>http://www.w3.org/2004/02/skos/core#definition</t>
   </si>
   <si>
-    <t>Publieksvriendelijke toelichting</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>scope note</t>
   </si>
   <si>
-    <t>1..N</t>
-  </si>
-  <si>
-    <t>Een toelichting voor een begrip is een notitie die meer duidelijk geeft over de betekenis of gebruik van een begrip</t>
-  </si>
-  <si>
     <t>De toelichting geeft een aanvulling op de definitie waardoor deze beter begrepen kan worden, zonder dat daarmee de formele beschrijving onnodig of onjuist wordt aangepast.</t>
   </si>
   <si>
-    <t>A note that helps to clarify the meaning and/or the use of a concept.</t>
-  </si>
-  <si>
     <t>http://www.w3.org/2004/02/skos/core#scopeNote</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>An alternative lexical label for a resource.</t>
   </si>
   <si>
-    <t>Een alternatieve term voor een begrip is een term die gebruikt kan worden als alternatief voor de voorkeursterm van dit begrip, maar niet de voorkeur heeft.</t>
-  </si>
-  <si>
     <t>http://www.w3.org/2004/02/skos/core#altLabel</t>
   </si>
   <si>
@@ -241,15 +223,9 @@
     <t>Verborgen labels kunnen bijvoorbeeld gebruikt worden voor veel voorkomende type of spellingsfouten.</t>
   </si>
   <si>
-    <t>Rationale</t>
-  </si>
-  <si>
     <t>Editorial Note</t>
   </si>
   <si>
-    <t>Een rationale voor een begrip is een notitie voor de redacteur, vertaler of beheerder van het begrippenkader.</t>
-  </si>
-  <si>
     <t>A note for an editor, translator or maintainer of the vocabulary.</t>
   </si>
   <si>
@@ -322,21 +298,6 @@
     <t>Behoort tot begrippenkader</t>
   </si>
   <si>
-    <t>Verzameling bevat</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2004/02/skos/core#member</t>
-  </si>
-  <si>
-    <t>has member</t>
-  </si>
-  <si>
-    <t>Relateert een collectie aan een begrip dat onderdeel is van deze collectie</t>
-  </si>
-  <si>
-    <t>Relates a collection to one of its members.</t>
-  </si>
-  <si>
     <t>Openstaande vragen.</t>
   </si>
   <si>
@@ -358,9 +319,6 @@
     <t>Bedoelt om niet semantische relaties naar andere begrippenkaders te creeeren.</t>
   </si>
   <si>
-    <t>is het verzameling bevat of concept behoort tot? Moet de relatie niet de andere kant op gelegd worden?</t>
-  </si>
-  <si>
     <t>http://www.w3.org/2004/02/skos/core#broader</t>
   </si>
   <si>
@@ -427,14 +385,95 @@
     <t>Profiel voor Catalogi</t>
   </si>
   <si>
-    <t>Aanvullende eigenschappen welke niet direct afkomstig zijn uit SKOS.</t>
+    <t>Redactionele opmerking</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>0..N</t>
+  </si>
+  <si>
+    <t>Toelichting</t>
+  </si>
+  <si>
+    <t>Publieksvriendelijke definitie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er is geen beperking in het formaat van het voorbeeld. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een alternatieve term voor een begrip is een term die gebruikt kan worden als alternatief voor de voorkeursterm van dit begrip, maar niet de voorkeur heeft. Synonieme termen kunnen hier ook worden gebruikt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er is behoefte voor een best practice voor de omgang met synoniemen. </t>
+  </si>
+  <si>
+    <t>Verzameling</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/skos-reference/#collections</t>
+  </si>
+  <si>
+    <t>Een definitie van een begrip is een officiele tekstuele beschrijving van de betekenis van dit begrip waarmee het begrip kan worden onderscheiden van andere begrippen.</t>
+  </si>
+  <si>
+    <t>Naast de officiele definitie kent een begrip ook een publieksvriendelijke definitie. Dit is een tekstuele beschrijving in B1 taalniveau.</t>
+  </si>
+  <si>
+    <t>rdfs:label@nl</t>
+  </si>
+  <si>
+    <t>rdfs:label@eng</t>
+  </si>
+  <si>
+    <t>skos:definition@nl</t>
+  </si>
+  <si>
+    <t>skos:definition@eng</t>
+  </si>
+  <si>
+    <t>sh:mincount</t>
+  </si>
+  <si>
+    <t>sh:severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publieksvriendelijke definitie is niet juridisch geldig, maar poogt wel zo compleet en correct mogelijk te zijn in B1 taalniveau. </t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a scope note upplies some, possibly partial, information about the intended meaning of a concept, especially as an indication of how the use of a concept is limited in indexing practice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een toelichting geeft (gedeeltelijke) aanvullende informatie over de beoogde betekenis van een begrip. </t>
+  </si>
+  <si>
+    <t>Notitie voor de redacteur, vertaler of beheerder van het begrippenkader.</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2000/01/rdf-schema#comment</t>
+  </si>
+  <si>
+    <t>SKOS Collectins make it possible to define meaningful groupings or "collections" of concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verzamelingen maken het mogelijk om begrippen te groeperen en verzamelingen te maken. </t>
+  </si>
+  <si>
+    <t>Notation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,8 +520,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -509,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,16 +632,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -600,13 +645,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -618,8 +660,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -937,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B491FE-25F7-4272-9CA2-829B80A9A17C}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,572 +1041,646 @@
     <col min="8" max="8" width="40" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.77734375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="50" style="24" customWidth="1"/>
     <col min="12" max="12" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="3" spans="1:15" s="43" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="C3" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="48"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="J4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="L4" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>83</v>
-      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="18" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="K6" s="25" t="s">
+      <c r="I7" s="4"/>
+      <c r="K7" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="18" t="s">
+    <row r="8" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="I9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="C10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E13" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5" t="s">
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="19" t="s">
+      <c r="G14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="2:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
+      <c r="C21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21"/>
+      <c r="K21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="2:12" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C27" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="K27" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13"/>
-      <c r="K13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B17" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18"/>
-      <c r="K18" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="2:12" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>55</v>
-      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="37"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="K30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K19" r:id="rId1" location="broader" xr:uid="{FDF50A84-2A92-473B-9448-7F0610A80C13}"/>
-    <hyperlink ref="K20" r:id="rId2" location="narrower" xr:uid="{F4ACA5E0-FE16-4916-9E33-FD793A48A288}"/>
+    <hyperlink ref="K22" r:id="rId1" location="broader" xr:uid="{FDF50A84-2A92-473B-9448-7F0610A80C13}"/>
+    <hyperlink ref="K23" r:id="rId2" location="narrower" xr:uid="{F4ACA5E0-FE16-4916-9E33-FD793A48A288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
